--- a/analytics_csv/weekly_data.xlsx
+++ b/analytics_csv/weekly_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H550"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14734,25 +14734,51 @@
         <v>45228</v>
       </c>
       <c r="B550" t="n">
-        <v>33941.10090140141</v>
+        <v>34026.44107093124</v>
       </c>
       <c r="C550" t="n">
-        <v>34502.82089154515</v>
+        <v>34538.48208811027</v>
       </c>
       <c r="D550" t="n">
         <v>33086.23296857776</v>
       </c>
       <c r="E550" t="n">
-        <v>34089.57587222225</v>
+        <v>34538.48208811027</v>
       </c>
       <c r="F550" t="n">
         <v>30140.68486297176</v>
       </c>
       <c r="G550" t="n">
-        <v>3948.891009250485</v>
+        <v>4397.797225138511</v>
       </c>
       <c r="H550" t="n">
-        <v>13.1015304635687</v>
+        <v>14.59090012430761</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B551" t="n">
+        <v>34585.07201189095</v>
+      </c>
+      <c r="C551" t="n">
+        <v>34667.77936054675</v>
+      </c>
+      <c r="D551" t="n">
+        <v>34502.36466323515</v>
+      </c>
+      <c r="E551" t="n">
+        <v>34667.77936054675</v>
+      </c>
+      <c r="F551" t="n">
+        <v>34531.74137398919</v>
+      </c>
+      <c r="G551" t="n">
+        <v>136.0379865575524</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.3939505543152889</v>
       </c>
     </row>
   </sheetData>
